--- a/IP Calculation.xlsx
+++ b/IP Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gkid-my.sharepoint.com/personal/jason_wong_trainocate_com/Documents/Training Related/Training Materials/Gits/learntocisco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FA68694-370B-462F-AF4F-3EB92F3F8CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{2FA68694-370B-462F-AF4F-3EB92F3F8CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04E7A8AD-E86F-4B11-8779-75A190749101}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{7492942D-52F3-4F79-B55B-EEB2EE37E863}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{7492942D-52F3-4F79-B55B-EEB2EE37E863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="111">
   <si>
     <t>IPv4</t>
   </si>
@@ -306,13 +306,73 @@
     <t>172.16.0.16/28</t>
   </si>
   <si>
-    <t>188.188.188.188</t>
-  </si>
-  <si>
     <t>Sales</t>
   </si>
   <si>
     <t>Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netmask/CIDR </t>
+  </si>
+  <si>
+    <t>/30</t>
+  </si>
+  <si>
+    <t>188.188.188.0</t>
+  </si>
+  <si>
+    <t>first ip</t>
+  </si>
+  <si>
+    <t>last ip</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>188.188.188.3</t>
+  </si>
+  <si>
+    <t>188.188.188.1</t>
+  </si>
+  <si>
+    <t>188.188.188.2</t>
+  </si>
+  <si>
+    <t>2^c-2=8</t>
+  </si>
+  <si>
+    <t>2^c=10</t>
+  </si>
+  <si>
+    <t>/28</t>
+  </si>
+  <si>
+    <t>188.188.188.16</t>
+  </si>
+  <si>
+    <t>188.188.188.31</t>
+  </si>
+  <si>
+    <t>2^c-2=100</t>
+  </si>
+  <si>
+    <t>/25</t>
+  </si>
+  <si>
+    <t>nccc cccc</t>
+  </si>
+  <si>
+    <t>0000 0000</t>
+  </si>
+  <si>
+    <t>188.188.188.128</t>
+  </si>
+  <si>
+    <t>188.188.188.255</t>
+  </si>
+  <si>
+    <t>188.188.188.0/16</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B92A88-F21C-469D-BD69-237CEA97566F}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1958,28 +2018,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33375633-0056-4D58-85CA-7DE87559FBBD}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection sqref="A1:G5"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>89</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -1987,12 +2047,162 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/IP Calculation.xlsx
+++ b/IP Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gkid-my.sharepoint.com/personal/jason_wong_trainocate_com/Documents/Training Related/Training Materials/Gits/learntocisco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{2FA68694-370B-462F-AF4F-3EB92F3F8CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04E7A8AD-E86F-4B11-8779-75A190749101}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{2FA68694-370B-462F-AF4F-3EB92F3F8CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01420A41-5327-4AC2-AC46-3203A526156C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{7492942D-52F3-4F79-B55B-EEB2EE37E863}"/>
+    <workbookView xWindow="-22485" yWindow="300" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{7492942D-52F3-4F79-B55B-EEB2EE37E863}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="129">
   <si>
     <t>IPv4</t>
   </si>
@@ -373,6 +373,60 @@
   </si>
   <si>
     <t>188.188.188.0/16</t>
+  </si>
+  <si>
+    <t>2^8</t>
+  </si>
+  <si>
+    <t>2^9</t>
+  </si>
+  <si>
+    <t>2^10</t>
+  </si>
+  <si>
+    <t>1000 clients</t>
+  </si>
+  <si>
+    <t>c=10</t>
+  </si>
+  <si>
+    <t>n=32-10=22</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>100c</t>
+  </si>
+  <si>
+    <t>c=7</t>
+  </si>
+  <si>
+    <t>n=25</t>
+  </si>
+  <si>
+    <t>188.188.188.188/30</t>
+  </si>
+  <si>
+    <t>nnnn nncc</t>
+  </si>
+  <si>
+    <t>1011 1100</t>
+  </si>
+  <si>
+    <t>188.188.188.192/28</t>
+  </si>
+  <si>
+    <t>1100 0000</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1101 0000</t>
+  </si>
+  <si>
+    <t>188.188.188.0/25</t>
   </si>
 </sst>
 </file>
@@ -426,6 +480,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,25 +803,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87B9202-7CD2-47BB-B42A-793E2A2E17AA}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D8"/>
+    <sheetView topLeftCell="C1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -774,7 +832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -782,84 +840,93 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>1024</v>
+      </c>
+      <c r="B7">
+        <v>512</v>
+      </c>
+      <c r="C7">
+        <v>256</v>
+      </c>
+      <c r="D7">
         <f>2^7</f>
         <v>128</v>
       </c>
-      <c r="B7">
+      <c r="E7">
         <f>2^6</f>
         <v>64</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <f>2^5</f>
         <v>32</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <f>2^4</f>
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <f>2^3</f>
         <v>8</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <f>2^2</f>
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <f>2^1</f>
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <f>2^0</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -869,6 +936,15 @@
       </c>
       <c r="H8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1791,15 +1867,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B92A88-F21C-469D-BD69-237CEA97566F}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1930,7 +2009,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1941,12 +2020,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>75</v>
       </c>
@@ -1954,7 +2033,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>70</v>
       </c>
@@ -1962,17 +2041,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>73</v>
       </c>
@@ -1980,12 +2059,23 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
       <c r="G25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
       <c r="G26" t="s">
         <v>70</v>
       </c>
@@ -1993,22 +2083,97 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>73</v>
       </c>
       <c r="I29" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31">
+        <v>188</v>
+      </c>
+      <c r="F31">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33">
+        <v>192</v>
+      </c>
+      <c r="F33">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33375633-0056-4D58-85CA-7DE87559FBBD}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
